--- a/t/regression/xlsx_files/page_view01.xlsx
+++ b/t/regression/xlsx_files/page_view01.xlsx
@@ -361,6 +361,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
 </worksheet>
 </file>